--- a/src/test/resources/TestData.xlsx
+++ b/src/test/resources/TestData.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9024" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="59">
   <si>
     <t>organization</t>
   </si>
@@ -84,15 +84,9 @@
     <t>Cust_ac_no</t>
   </si>
   <si>
-    <t>1011191011383</t>
-  </si>
-  <si>
     <t>Cust_ac_Id</t>
   </si>
   <si>
-    <t>1011383</t>
-  </si>
-  <si>
     <t>reason</t>
   </si>
   <si>
@@ -129,9 +123,6 @@
     <t>12345</t>
   </si>
   <si>
-    <t>pan_no</t>
-  </si>
-  <si>
     <t>pan0123</t>
   </si>
   <si>
@@ -196,19 +187,22 @@
   </si>
   <si>
     <t>acc_no</t>
+  </si>
+  <si>
+    <t>pan1234134</t>
+  </si>
+  <si>
+    <t>1011411011426</t>
+  </si>
+  <si>
+    <t>1011426</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="22">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -226,7 +220,6 @@
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -234,338 +227,16 @@
       <name val="Consolas"/>
       <charset val="134"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -573,316 +244,28 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1173,21 +556,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:B7"/>
+      <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="12.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1246,35 +629,33 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:2">
+    <row r="8" spans="1:2">
       <c r="B8" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="19.2222222222222" customWidth="1"/>
-    <col min="2" max="2" width="15.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="19.21875" customWidth="1"/>
+    <col min="2" max="2" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1286,23 +667,23 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4">
       <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>18</v>
       </c>
@@ -1312,129 +693,122 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="2" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="18.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="17.5555555555556" customWidth="1"/>
+    <col min="1" max="1" width="18.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>21</v>
+      <c r="B1" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="17.2222222222222" customWidth="1"/>
-    <col min="2" max="2" width="22.4444444444444" customWidth="1"/>
+    <col min="1" max="1" width="17.21875" customWidth="1"/>
+    <col min="2" max="2" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
         <v>10</v>
@@ -1442,7 +816,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
         <v>3</v>
@@ -1450,55 +824,55 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>47</v>
+        <v>43</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>53</v>
+        <v>49</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
         <v>19</v>
@@ -1506,23 +880,21 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B4" r:id="rId1" display="sondash@gmail.com"/>
+    <hyperlink ref="B4" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -1582,56 +954,53 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="16.3333333333333" customWidth="1"/>
-    <col min="2" max="2" width="20.6666666666667" customWidth="1"/>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B3">
         <v>9078019941</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>